--- a/Karma Topden10.xlsx
+++ b/Karma Topden10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="630" windowWidth="15570" windowHeight="7875" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="600" yWindow="630" windowWidth="15570" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="162">
   <si>
     <t xml:space="preserve">A spreadsheet is a program you easily perform mathematical calculation on statical data and totaling long columns of numbers or
 determining percentages and averages
@@ -485,6 +486,63 @@
   </si>
   <si>
     <t>batman@gmail.com</t>
+  </si>
+  <si>
+    <t>LINK TO MY PROJECT</t>
+  </si>
+  <si>
+    <t>STUDENT MARKSHEET</t>
+  </si>
+  <si>
+    <t>SCIENCE</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>BHUTIA</t>
+  </si>
+  <si>
+    <t>KARMA</t>
+  </si>
+  <si>
+    <t>TOPDEN</t>
+  </si>
+  <si>
+    <t>SONAM</t>
+  </si>
+  <si>
+    <t>KIPU</t>
+  </si>
+  <si>
+    <t>TSHERING</t>
+  </si>
+  <si>
+    <t>LHAMU</t>
+  </si>
+  <si>
+    <t>TASHI</t>
+  </si>
+  <si>
+    <t>SAMTEN</t>
+  </si>
+  <si>
+    <t>ZIGMEE</t>
+  </si>
+  <si>
+    <t>PECENTAGE</t>
+  </si>
+  <si>
+    <t>PASS/FAIL</t>
+  </si>
+  <si>
+    <t>TOTAL OUT OF 300</t>
+  </si>
+  <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t>IRON</t>
   </si>
 </sst>
 </file>
@@ -523,7 +581,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,8 +636,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -649,6 +719,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -657,7 +742,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -686,6 +771,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,11 +851,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -804,10 +894,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1750450933832596"/>
-          <c:y val="5.9270997375328115E-2"/>
-          <c:w val="0.70594160366096326"/>
-          <c:h val="0.63572506561679853"/>
+          <c:x val="0.17504509338325966"/>
+          <c:y val="5.9270997375328122E-2"/>
+          <c:w val="0.7059416036609637"/>
+          <c:h val="0.63572506561679898"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -913,24 +1003,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="71037696"/>
-        <c:axId val="71039232"/>
+        <c:axId val="70260224"/>
+        <c:axId val="70261760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71037696"/>
+        <c:axId val="70260224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71039232"/>
+        <c:crossAx val="70261760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71039232"/>
+        <c:axId val="70261760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +1028,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71037696"/>
+        <c:crossAx val="70260224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -949,10 +1039,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33994050608964577"/>
+          <c:x val="0.3399405060896461"/>
           <c:y val="0.82878280839895013"/>
-          <c:w val="0.33101478867267303"/>
-          <c:h val="0.15069094488188986"/>
+          <c:w val="0.33101478867267337"/>
+          <c:h val="0.15069094488188992"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -960,7 +1050,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1733,6 +1823,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="salary.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="1333500"/>
+          <a:ext cx="3076575" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="students.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867401" y="1343025"/>
+          <a:ext cx="2819400" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2020,7 +2191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28:M35"/>
     </sheetView>
   </sheetViews>
@@ -2033,81 +2204,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="C7" s="1" t="s">
@@ -2116,228 +2287,228 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="H8" s="21" t="s">
+      <c r="D8" s="23"/>
+      <c r="H8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="4:13">
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="20" spans="4:13">
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="4:13">
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="4:13">
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
     </row>
     <row r="26" spans="4:13">
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
     </row>
     <row r="28" spans="4:13">
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="19" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
     </row>
     <row r="29" spans="4:13">
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
     </row>
     <row r="30" spans="4:13">
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
     </row>
     <row r="31" spans="4:13">
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
     </row>
     <row r="32" spans="4:13">
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
     </row>
     <row r="33" spans="8:13">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="34" spans="8:13">
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="8:13">
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2382,14 +2553,14 @@
       </c>
     </row>
     <row r="2" spans="4:14">
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="L2" t="s">
         <v>94</v>
       </c>
@@ -2454,22 +2625,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="4" spans="3:10">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="7" spans="3:10">
       <c r="C7" s="14" t="s">
@@ -2512,7 +2683,7 @@
       <c r="I9">
         <v>1000</v>
       </c>
-      <c r="J9" s="43" t="str">
+      <c r="J9" s="17" t="str">
         <f>"("&amp;I9&amp;")"</f>
         <v>(1000)</v>
       </c>
@@ -2533,7 +2704,7 @@
       <c r="I10">
         <v>2000</v>
       </c>
-      <c r="J10" s="43" t="str">
+      <c r="J10" s="17" t="str">
         <f>"("&amp;I10&amp;")"</f>
         <v>(2000)</v>
       </c>
@@ -2555,7 +2726,7 @@
       <c r="I11">
         <v>3000</v>
       </c>
-      <c r="J11" s="43" t="str">
+      <c r="J11" s="17" t="str">
         <f>"("&amp;I11&amp;")"</f>
         <v>(3000)</v>
       </c>
@@ -2576,7 +2747,7 @@
       <c r="I12">
         <v>4000</v>
       </c>
-      <c r="J12" s="43" t="str">
+      <c r="J12" s="17" t="str">
         <f>"("&amp;I12&amp;")"</f>
         <v>(4000)</v>
       </c>
@@ -2602,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2615,12 +2786,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="15"/>
@@ -2717,14 +2888,332 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="F5:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F5" sqref="F5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="6:10">
+      <c r="F5" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="6:10">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F5:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="C1" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6">
+        <v>85</v>
+      </c>
+      <c r="C6">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <f>SUM(B6:D6)</f>
+        <v>270</v>
+      </c>
+      <c r="F6" s="46">
+        <f>E6/300</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>86</v>
+      </c>
+      <c r="D7">
+        <v>84</v>
+      </c>
+      <c r="E7">
+        <f>SUM(B7:D7)</f>
+        <v>250</v>
+      </c>
+      <c r="F7" s="46">
+        <f>E7/300</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <f>SUM(B8:D8)</f>
+        <v>112</v>
+      </c>
+      <c r="F8" s="46">
+        <f>E8/300</f>
+        <v>0.37333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>95</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <f>SUM(B9:D9)</f>
+        <v>260</v>
+      </c>
+      <c r="F9" s="46">
+        <f>E9/300</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>85</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <f>SUM(B10:D10)</f>
+        <v>260</v>
+      </c>
+      <c r="F10" s="46">
+        <f>E10/300</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <f>SUM(B11:D11)</f>
+        <v>128</v>
+      </c>
+      <c r="F11" s="46">
+        <f>E11/300</f>
+        <v>0.42666666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>95</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <f>SUM(B12:D12)</f>
+        <v>270</v>
+      </c>
+      <c r="F12" s="46">
+        <f>E12/300</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <f>SUM(B13:D13)</f>
+        <v>126</v>
+      </c>
+      <c r="F13" s="46">
+        <f>E13/300</f>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>90</v>
+      </c>
+      <c r="E14">
+        <f>SUM(B14:D14)</f>
+        <v>260</v>
+      </c>
+      <c r="F14" s="46">
+        <f>E14/300</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <f>SUM(B15:D15)</f>
+        <v>260</v>
+      </c>
+      <c r="F15" s="46">
+        <f>E15/300</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2733,7 +3222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="Z115" sqref="Z115"/>
     </sheetView>
   </sheetViews>
@@ -2752,158 +3241,158 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:18">
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="24"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:18">
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:18">
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="26"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="13" spans="1:18">
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="26"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1">
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:18">
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="26"/>
     </row>
     <row r="17" spans="7:18" ht="15.75" thickBot="1">
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2937,43 +3426,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -3077,60 +3566,60 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:9">
       <c r="G15" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
@@ -3188,24 +3677,24 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3238,23 +3727,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -3288,44 +3777,44 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3364,123 +3853,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="H1" s="39" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="H1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" t="s">
@@ -3498,13 +3987,13 @@
       <c r="F9">
         <v>13</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
@@ -3680,14 +4169,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="6" spans="1:7">
       <c r="F6" t="s">
@@ -3775,13 +4264,13 @@
       </c>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="21" spans="4:8">
       <c r="F21" t="s">
@@ -3880,7 +4369,7 @@
   <dimension ref="D4:L29"/>
   <sheetViews>
     <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3899,12 +4388,12 @@
       </c>
     </row>
     <row r="7" spans="5:12">
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="13" spans="5:12">
       <c r="G13" s="8"/>
@@ -3995,12 +4484,12 @@
       </c>
     </row>
     <row r="23" spans="4:10">
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
     </row>
     <row r="25" spans="4:10">
       <c r="H25" s="8" t="s">
@@ -4038,12 +4527,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">

--- a/Karma Topden10.xlsx
+++ b/Karma Topden10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="630" windowWidth="15570" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="630" windowWidth="15570" windowHeight="7875" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="165">
   <si>
     <t xml:space="preserve">A spreadsheet is a program you easily perform mathematical calculation on statical data and totaling long columns of numbers or
 determining percentages and averages
@@ -543,6 +544,15 @@
   </si>
   <si>
     <t>IRON</t>
+  </si>
+  <si>
+    <t>HIGHEST MARKS</t>
+  </si>
+  <si>
+    <t>LOWEST MARKS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -581,7 +591,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,6 +655,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +758,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -773,6 +789,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -857,8 +875,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -894,10 +913,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17504509338325966"/>
+          <c:x val="0.17504509338325969"/>
           <c:y val="5.9270997375328122E-2"/>
-          <c:w val="0.7059416036609637"/>
-          <c:h val="0.63572506561679898"/>
+          <c:w val="0.70594160366096381"/>
+          <c:h val="0.6357250656167992"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1003,24 +1022,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="70260224"/>
-        <c:axId val="70261760"/>
+        <c:axId val="60073472"/>
+        <c:axId val="60075008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70260224"/>
+        <c:axId val="60073472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70261760"/>
+        <c:crossAx val="60075008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70261760"/>
+        <c:axId val="60075008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1047,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70260224"/>
+        <c:crossAx val="60073472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1039,10 +1058,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3399405060896461"/>
+          <c:x val="0.33994050608964627"/>
           <c:y val="0.82878280839895013"/>
-          <c:w val="0.33101478867267337"/>
-          <c:h val="0.15069094488188992"/>
+          <c:w val="0.33101478867267348"/>
+          <c:h val="0.15069094488188994"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -1050,7 +1069,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1071,7 +1090,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,7 +1150,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="Capture.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +1194,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="Capture.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,7 +1238,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1280,7 +1299,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1362,7 @@
         <xdr:cNvPr id="9" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1423,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1486,7 @@
         <xdr:cNvPr id="11" name="Picture 10" descr="Capture.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1530,7 @@
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1591,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1654,7 @@
         <xdr:cNvPr id="14" name="Picture 13" descr="Capture.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1698,7 @@
         <xdr:cNvPr id="15" name="Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1759,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,81 +2223,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="C7" s="1" t="s">
@@ -2287,228 +2306,228 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="25"/>
+      <c r="H8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="4:13">
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
     </row>
     <row r="20" spans="4:13">
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="4:13">
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" spans="4:13">
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="26" spans="4:13">
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
     </row>
     <row r="28" spans="4:13">
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="21" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
     </row>
     <row r="29" spans="4:13">
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
     </row>
     <row r="30" spans="4:13">
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
     </row>
     <row r="31" spans="4:13">
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
     </row>
     <row r="32" spans="4:13">
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
     </row>
     <row r="33" spans="8:13">
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
     </row>
     <row r="34" spans="8:13">
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
     </row>
     <row r="35" spans="8:13">
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2553,14 +2572,14 @@
       </c>
     </row>
     <row r="2" spans="4:14">
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="L2" t="s">
         <v>94</v>
       </c>
@@ -2625,22 +2644,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="4" spans="3:10">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="7" spans="3:10">
       <c r="C7" s="14" t="s">
@@ -2795,11 +2814,11 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="15"/>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="5" spans="1:8">
       <c r="E5" t="s">
@@ -2897,20 +2916,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="5" spans="6:10">
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="6:10">
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2923,70 +2942,72 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="19" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3004,12 +3025,16 @@
         <v>90</v>
       </c>
       <c r="E6">
-        <f>SUM(B6:D6)</f>
+        <f t="shared" ref="E6:E15" si="0">SUM(B6:D6)</f>
         <v>270</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="18">
         <f>E6/300</f>
         <v>0.9</v>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(F6&lt;=50%,"FAIL","PASS")</f>
+        <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3026,12 +3051,16 @@
         <v>84</v>
       </c>
       <c r="E7">
-        <f>SUM(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="F7" s="46">
-        <f>E7/300</f>
+      <c r="F7" s="18">
+        <f t="shared" ref="F6:F15" si="1">E7/300</f>
         <v>0.83333333333333337</v>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(F7&lt;50%,"FAIL","PASS")</f>
+        <v>PASS</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3048,12 +3077,16 @@
         <v>45</v>
       </c>
       <c r="E8">
-        <f>SUM(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="F8" s="46">
-        <f>E8/300</f>
+      <c r="F8" s="18">
+        <f t="shared" si="1"/>
         <v>0.37333333333333335</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(F8&lt;50%,"FAIL","PASS")</f>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3070,12 +3103,16 @@
         <v>90</v>
       </c>
       <c r="E9">
-        <f>SUM(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="F9" s="46">
-        <f>E9/300</f>
+      <c r="F9" s="18">
+        <f t="shared" si="1"/>
         <v>0.8666666666666667</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(F9&lt;50%,"FAIL","PASS")</f>
+        <v>PASS</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3092,12 +3129,16 @@
         <v>80</v>
       </c>
       <c r="E10">
-        <f>SUM(B10:D10)</f>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="F10" s="46">
-        <f>E10/300</f>
+      <c r="F10" s="18">
+        <f t="shared" si="1"/>
         <v>0.8666666666666667</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(F10&lt;50%,"FAIL","PASS")</f>
+        <v>PASS</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3114,12 +3155,16 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <f>SUM(B11:D11)</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="F11" s="46">
-        <f>E11/300</f>
+      <c r="F11" s="18">
+        <f t="shared" si="1"/>
         <v>0.42666666666666669</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(F11&lt;50%,"FAIL","PASS")</f>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3136,12 +3181,16 @@
         <v>80</v>
       </c>
       <c r="E12">
-        <f>SUM(B12:D12)</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="F12" s="46">
-        <f>E12/300</f>
+      <c r="F12" s="18">
+        <f t="shared" si="1"/>
         <v>0.9</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(F12&lt;50%,"FAIL","PASS")</f>
+        <v>PASS</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3158,12 +3207,16 @@
         <v>70</v>
       </c>
       <c r="E13">
-        <f>SUM(B13:D13)</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F13" s="46">
-        <f>E13/300</f>
+      <c r="F13" s="18">
+        <f t="shared" si="1"/>
         <v>0.42</v>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(F13&lt;50%,"FAIL","PASS")</f>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3180,12 +3233,16 @@
         <v>90</v>
       </c>
       <c r="E14">
-        <f>SUM(B14:D14)</f>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="F14" s="46">
-        <f>E14/300</f>
+      <c r="F14" s="18">
+        <f t="shared" si="1"/>
         <v>0.8666666666666667</v>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(F14&lt;50%,"FAIL","PASS")</f>
+        <v>PASS</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3202,12 +3259,43 @@
         <v>70</v>
       </c>
       <c r="E15">
-        <f>SUM(B15:D15)</f>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="F15" s="46">
-        <f>E15/300</f>
+      <c r="F15" s="18">
+        <f t="shared" si="1"/>
         <v>0.8666666666666667</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(F15&lt;50%,"FAIL","PASS")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="str">
+        <f>INDEX(A6:A15,MATCH(MAX(E6:E15),E6:E15,0))</f>
+        <v>KARMA</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="str">
+        <f>INDEX(A6:A15,MATCH(MIN(E6:E15),E6:E15,0))</f>
+        <v>IRON</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20">
+        <f>COUNTIF(G6:G15,"FAIL")</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3218,11 +3306,23 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="Z115" sqref="Z115"/>
     </sheetView>
   </sheetViews>
@@ -3241,158 +3341,158 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:18">
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:18">
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="28"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:18">
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="28"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="13" spans="1:18">
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1">
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="31"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:18">
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="28"/>
     </row>
     <row r="17" spans="7:18" ht="15.75" thickBot="1">
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3426,43 +3526,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -3566,60 +3666,60 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:9">
       <c r="G15" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
@@ -3677,24 +3777,24 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3727,23 +3827,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -3777,44 +3877,44 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3853,123 +3953,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="H1" s="41" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="H1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" t="s">
@@ -3987,13 +4087,13 @@
       <c r="F9">
         <v>13</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
@@ -4169,14 +4269,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="6" spans="1:7">
       <c r="F6" t="s">
@@ -4264,13 +4364,13 @@
       </c>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="21" spans="4:8">
       <c r="F21" t="s">
@@ -4388,12 +4488,12 @@
       </c>
     </row>
     <row r="7" spans="5:12">
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="13" spans="5:12">
       <c r="G13" s="8"/>
@@ -4484,12 +4584,12 @@
       </c>
     </row>
     <row r="23" spans="4:10">
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
     </row>
     <row r="25" spans="4:10">
       <c r="H25" s="8" t="s">
@@ -4527,12 +4627,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
